--- a/data/trans_bre/P1413-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1413-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.6539707891184908</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.584821006750203</v>
+        <v>0.5848210067502027</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.748838929833501</v>
+        <v>-2.884438515461649</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.322832979349027</v>
+        <v>5.269745340211119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.422522351915548</v>
+        <v>2.431102829213343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.064177970751744</v>
+        <v>7.479047542022436</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1659682238809299</v>
+        <v>-0.1721883207753972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4132464783732908</v>
+        <v>0.4148893773026703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2284115537042103</v>
+        <v>0.2123357653727645</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3130572755224071</v>
+        <v>0.3368257539920683</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.745853769838258</v>
+        <v>4.676942920902528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.31586393482395</v>
+        <v>13.10387365935638</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.60812685146773</v>
+        <v>9.887560931819518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.24873755655884</v>
+        <v>14.96552855814443</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3630021150700544</v>
+        <v>0.35306192496101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.378667963245803</v>
+        <v>1.355971963469597</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.341156177192566</v>
+        <v>1.343971264951243</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8705274769722762</v>
+        <v>0.8632638976453824</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.617244376660175</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15.38188835094659</v>
+        <v>15.38188835094658</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4628187267464656</v>
@@ -749,7 +749,7 @@
         <v>0.7110429037730579</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9198866288017236</v>
+        <v>0.9198866288017229</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.863099237432058</v>
+        <v>2.898723326958945</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.035143341046467</v>
+        <v>3.563308434216815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.86680501762192</v>
+        <v>2.69000321354991</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.59977909205372</v>
+        <v>11.63280859288164</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1895532579427571</v>
+        <v>0.188151381198019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3476281259763104</v>
+        <v>0.2957253036394774</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2995984946254466</v>
+        <v>0.2901071117491557</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6028260675484171</v>
+        <v>0.6239260593612472</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.72045522801246</v>
+        <v>9.917142678790194</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.00097716973901</v>
+        <v>9.960445884479178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.437176956944466</v>
+        <v>8.567883368228975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.65135690742591</v>
+        <v>18.47195129638256</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8014062952627683</v>
+        <v>0.8208219969183795</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.103259925757411</v>
+        <v>1.111879248418584</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.245632288365344</v>
+        <v>1.250824797652231</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.235729224719762</v>
+        <v>1.241132363020221</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.138928989794505</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12.66097785532304</v>
+        <v>12.66097785532305</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3074925912780014</v>
@@ -849,7 +849,7 @@
         <v>0.6341400361871834</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6311067051386975</v>
+        <v>0.6311067051386978</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.381222607473986</v>
+        <v>1.391463981167551</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.256354070777158</v>
+        <v>5.677859926623352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.252018875382882</v>
+        <v>0.8778191213796829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.400806061219333</v>
+        <v>8.013541355902309</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0616726406417043</v>
+        <v>0.06126769769230284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.643589293110285</v>
+        <v>0.713870544900424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1535215044672815</v>
+        <v>0.1065759882001067</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3701980257420527</v>
+        <v>0.3474900817513793</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.45031905920691</v>
+        <v>10.88259663321194</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.9680967388937</v>
+        <v>12.11019405091868</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.987267635359216</v>
+        <v>6.864025266509811</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.12631978707361</v>
+        <v>16.76332580899795</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5926516943080228</v>
+        <v>0.6109330919875074</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.382557961838702</v>
+        <v>2.444384996615506</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.36174726859345</v>
+        <v>1.313081658617979</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9643475664319517</v>
+        <v>0.9478831442895139</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.852696340239424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.789097124629944</v>
+        <v>8.789097124629947</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.0469118085087567</v>
@@ -949,7 +949,7 @@
         <v>0.7460746807143823</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4741455282878198</v>
+        <v>0.47414552828782</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.106986366544076</v>
+        <v>-4.068887420815157</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.290543256269883</v>
+        <v>8.288719600201935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.050911270131963</v>
+        <v>3.769892550471316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.090024754692449</v>
+        <v>5.540380039194226</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2253323659604624</v>
+        <v>-0.222667063976918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8697190040967432</v>
+        <v>0.8673632865290966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.372420866854296</v>
+        <v>0.3583604688971875</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2340920671263065</v>
+        <v>0.2700938037099416</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.466906637995259</v>
+        <v>2.387556848701495</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.38531681873528</v>
+        <v>14.51793426815549</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.882911588877946</v>
+        <v>9.863223577919779</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.86499687233422</v>
+        <v>12.25937062281163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1598962688268621</v>
+        <v>0.1495920553420369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.14050426365511</v>
+        <v>2.184982040681897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.232685620636847</v>
+        <v>1.257174142766796</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6970642362510039</v>
+        <v>0.7440475239654957</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.726382048783414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12.04950338476415</v>
+        <v>12.04950338476416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1890013094431436</v>
@@ -1049,7 +1049,7 @@
         <v>0.7004742986062025</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6494402185610489</v>
+        <v>0.6494402185610495</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.165178514517089</v>
+        <v>1.319718412837851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.505943626929014</v>
+        <v>7.583686778779539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.217243374301023</v>
+        <v>4.09676521296248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.1941215910233</v>
+        <v>10.20903350577288</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06827278440146463</v>
+        <v>0.07628980131963066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7597989443638199</v>
+        <v>0.7840553867404156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4708503981096017</v>
+        <v>0.4713236300573193</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5202421642192735</v>
+        <v>0.5186464716292494</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.913521062609661</v>
+        <v>4.860513042346437</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.73732031394722</v>
+        <v>10.6453109089885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.227857908861816</v>
+        <v>7.293177178726716</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.05175269506516</v>
+        <v>13.97583316885039</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3249365131953034</v>
+        <v>0.3182537822233832</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.282746707660768</v>
+        <v>1.28372196658863</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.967320858115697</v>
+        <v>0.9632705383882995</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8059964063797732</v>
+        <v>0.7925161640518412</v>
       </c>
     </row>
     <row r="19">
